--- a/DateBase/orders/Dang Nguyen_2025-1-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-1-11.xlsx
@@ -607,6 +607,9 @@
       <c r="C21" t="str">
         <v>362_蓬莱松_Asparagus_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -668,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101055510106106555518201651450</v>
+        <v>0101055510106106555518201651455</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-1-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-1-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,9 +611,63 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F22" t="str">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>362_蓬莱松_Asparagus_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>5</v>
+      </c>
+      <c r="C24" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F24" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F25" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -671,7 +725,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101055510106106555518201651455</v>
+        <v>0101055510106106555518201651455145254090323</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-1-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-1-11.xlsx
@@ -727,6 +727,9 @@
       <c r="G2" t="str">
         <v>0101055510106106555518201651455145254090323</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
